--- a/Code/Results/Cases/Case_5_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9944556970609334</v>
+        <v>1.04970888862596</v>
       </c>
       <c r="D2">
-        <v>1.015188125991968</v>
+        <v>1.05336706752593</v>
       </c>
       <c r="E2">
-        <v>1.000793036598304</v>
+        <v>1.04680113597715</v>
       </c>
       <c r="F2">
-        <v>1.015010327459341</v>
+        <v>1.061627691383946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040205343116718</v>
+        <v>1.038302735358962</v>
       </c>
       <c r="J2">
-        <v>1.01680351137667</v>
+        <v>1.054745901642773</v>
       </c>
       <c r="K2">
-        <v>1.026439844839815</v>
+        <v>1.056113232328339</v>
       </c>
       <c r="L2">
-        <v>1.012241334207198</v>
+        <v>1.049565555426539</v>
       </c>
       <c r="M2">
-        <v>1.026264431576752</v>
+        <v>1.064351237256879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003248326361714</v>
+        <v>1.051408124854707</v>
       </c>
       <c r="D3">
-        <v>1.022110709218339</v>
+        <v>1.054710776521811</v>
       </c>
       <c r="E3">
-        <v>1.008193554507649</v>
+        <v>1.048273350027508</v>
       </c>
       <c r="F3">
-        <v>1.022914443645876</v>
+        <v>1.063200686143314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04271391311083</v>
+        <v>1.038686550608598</v>
       </c>
       <c r="J3">
-        <v>1.023650828726011</v>
+        <v>1.056090861217224</v>
       </c>
       <c r="K3">
-        <v>1.03246828491208</v>
+        <v>1.057268612926101</v>
       </c>
       <c r="L3">
-        <v>1.018722659827452</v>
+        <v>1.050847771178331</v>
       </c>
       <c r="M3">
-        <v>1.033262290334575</v>
+        <v>1.065736980932223</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008743802332485</v>
+        <v>1.052505325776798</v>
       </c>
       <c r="D4">
-        <v>1.026439794733861</v>
+        <v>1.055577957420256</v>
       </c>
       <c r="E4">
-        <v>1.012825189550897</v>
+        <v>1.049224047233271</v>
       </c>
       <c r="F4">
-        <v>1.027861463431363</v>
+        <v>1.064216531138523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044267763032154</v>
+        <v>1.038932505001578</v>
       </c>
       <c r="J4">
-        <v>1.02792645485783</v>
+        <v>1.056958514722631</v>
       </c>
       <c r="K4">
-        <v>1.036229253022035</v>
+        <v>1.058013399260951</v>
       </c>
       <c r="L4">
-        <v>1.022771251428471</v>
+        <v>1.051675023326691</v>
       </c>
       <c r="M4">
-        <v>1.037634863607934</v>
+        <v>1.066631172740828</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011010687113342</v>
+        <v>1.052966046494882</v>
       </c>
       <c r="D5">
-        <v>1.028225966570919</v>
+        <v>1.055941981271522</v>
       </c>
       <c r="E5">
-        <v>1.014737110098963</v>
+        <v>1.049623269633533</v>
       </c>
       <c r="F5">
-        <v>1.029903620110735</v>
+        <v>1.0646431269236</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044905274950493</v>
+        <v>1.039035332959586</v>
       </c>
       <c r="J5">
-        <v>1.029689096830799</v>
+        <v>1.057322657464132</v>
       </c>
       <c r="K5">
-        <v>1.037778889754435</v>
+        <v>1.058325840118522</v>
       </c>
       <c r="L5">
-        <v>1.024440642385949</v>
+        <v>1.052022228145743</v>
       </c>
       <c r="M5">
-        <v>1.03943815033873</v>
+        <v>1.067006507577722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011388843429355</v>
+        <v>1.053043372077187</v>
       </c>
       <c r="D6">
-        <v>1.028523952163044</v>
+        <v>1.056003071128437</v>
       </c>
       <c r="E6">
-        <v>1.015056129242047</v>
+        <v>1.049690274686087</v>
       </c>
       <c r="F6">
-        <v>1.030244372847252</v>
+        <v>1.064714727240327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04501141776068</v>
+        <v>1.039052564820105</v>
       </c>
       <c r="J6">
-        <v>1.029983071992662</v>
+        <v>1.057383762626948</v>
       </c>
       <c r="K6">
-        <v>1.038037289519314</v>
+        <v>1.05837826142179</v>
       </c>
       <c r="L6">
-        <v>1.024719084927224</v>
+        <v>1.052080492083908</v>
       </c>
       <c r="M6">
-        <v>1.03973894337309</v>
+        <v>1.067069494015104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008774259377223</v>
+        <v>1.05251148406419</v>
       </c>
       <c r="D7">
-        <v>1.026463791610438</v>
+        <v>1.055582823630303</v>
       </c>
       <c r="E7">
-        <v>1.012850872156198</v>
+        <v>1.049229383419869</v>
       </c>
       <c r="F7">
-        <v>1.027888895302635</v>
+        <v>1.064222233146748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044276342193574</v>
+        <v>1.038933881233966</v>
       </c>
       <c r="J7">
-        <v>1.027950141372252</v>
+        <v>1.056963382833779</v>
       </c>
       <c r="K7">
-        <v>1.036250080513727</v>
+        <v>1.058017576721558</v>
       </c>
       <c r="L7">
-        <v>1.022793683481319</v>
+        <v>1.051679664929409</v>
       </c>
       <c r="M7">
-        <v>1.037659093659221</v>
+        <v>1.066636190262355</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974692801405907</v>
+        <v>1.050283641094671</v>
       </c>
       <c r="D8">
-        <v>1.01756016120276</v>
+        <v>1.053821659544518</v>
       </c>
       <c r="E8">
-        <v>1.003328083869591</v>
+        <v>1.047299081874205</v>
       </c>
       <c r="F8">
-        <v>1.01771783673185</v>
+        <v>1.062159710217082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041068045552646</v>
+        <v>1.038432946356402</v>
       </c>
       <c r="J8">
-        <v>1.019151148760454</v>
+        <v>1.05520098647182</v>
       </c>
       <c r="K8">
-        <v>1.028507408663177</v>
+        <v>1.056504287985327</v>
       </c>
       <c r="L8">
-        <v>1.014463162079329</v>
+        <v>1.049999394298822</v>
       </c>
       <c r="M8">
-        <v>1.028663040068771</v>
+        <v>1.064820074503733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9759090947207271</v>
+        <v>1.046339576494526</v>
       </c>
       <c r="D9">
-        <v>1.000607672456658</v>
+        <v>1.050700333107755</v>
       </c>
       <c r="E9">
-        <v>0.9852248773917509</v>
+        <v>1.043882467239555</v>
       </c>
       <c r="F9">
-        <v>0.9983840951119332</v>
+        <v>1.058509587237848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03483865350148</v>
+        <v>1.03753170998789</v>
       </c>
       <c r="J9">
-        <v>1.002342217914397</v>
+        <v>1.052074875273024</v>
       </c>
       <c r="K9">
-        <v>1.013690898286899</v>
+        <v>1.053815690597578</v>
       </c>
       <c r="L9">
-        <v>0.9985623073067454</v>
+        <v>1.047019543998641</v>
       </c>
       <c r="M9">
-        <v>1.011503443763258</v>
+        <v>1.061600442908638</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9601828317387363</v>
+        <v>1.043697091475469</v>
       </c>
       <c r="D10">
-        <v>0.9882750119660662</v>
+        <v>1.048606828285334</v>
       </c>
       <c r="E10">
-        <v>0.9720713284168734</v>
+        <v>1.041593897322076</v>
       </c>
       <c r="F10">
-        <v>0.9843380080779932</v>
+        <v>1.056064959705235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030225989181821</v>
+        <v>1.036918224592825</v>
       </c>
       <c r="J10">
-        <v>0.9900704016690161</v>
+        <v>1.049976374322297</v>
       </c>
       <c r="K10">
-        <v>1.002859241601231</v>
+        <v>1.052007980689353</v>
       </c>
       <c r="L10">
-        <v>0.9869638421002889</v>
+        <v>1.045019627900092</v>
       </c>
       <c r="M10">
-        <v>0.9989959221464058</v>
+        <v>1.059440367722662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9529833558934389</v>
+        <v>1.042549580245486</v>
       </c>
       <c r="D11">
-        <v>0.9826405524726923</v>
+        <v>1.047697197409005</v>
       </c>
       <c r="E11">
-        <v>0.9660648907291197</v>
+        <v>1.040600213796262</v>
       </c>
       <c r="F11">
-        <v>0.9779244528110743</v>
+        <v>1.055003601685753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028099777425508</v>
+        <v>1.036649529227562</v>
       </c>
       <c r="J11">
-        <v>0.984451884134516</v>
+        <v>1.049064140758654</v>
       </c>
       <c r="K11">
-        <v>0.9978974397512134</v>
+        <v>1.051221472363606</v>
       </c>
       <c r="L11">
-        <v>0.9816564614901534</v>
+        <v>1.044150346952669</v>
       </c>
       <c r="M11">
-        <v>0.9932750451830301</v>
+        <v>1.058501656444982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9502434555359436</v>
+        <v>1.042122832705172</v>
       </c>
       <c r="D12">
-        <v>0.9804983333605478</v>
+        <v>1.047358838809663</v>
       </c>
       <c r="E12">
-        <v>0.9637816267448859</v>
+        <v>1.040230695085915</v>
       </c>
       <c r="F12">
-        <v>0.9754865051945851</v>
+        <v>1.054608929823063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027288606019083</v>
+        <v>1.03654926119009</v>
       </c>
       <c r="J12">
-        <v>0.9823137949140686</v>
+        <v>1.04872474846828</v>
       </c>
       <c r="K12">
-        <v>0.9960089407913629</v>
+        <v>1.05092875326277</v>
       </c>
       <c r="L12">
-        <v>0.979637240311281</v>
+        <v>1.043826949702147</v>
       </c>
       <c r="M12">
-        <v>0.9910989121476992</v>
+        <v>1.058152456959303</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9508342741486032</v>
+        <v>1.042214394862572</v>
       </c>
       <c r="D13">
-        <v>0.9809601704916329</v>
+        <v>1.047431439830911</v>
       </c>
       <c r="E13">
-        <v>0.9642738556865719</v>
+        <v>1.04030997732361</v>
       </c>
       <c r="F13">
-        <v>0.9760120774226552</v>
+        <v>1.054693608225574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027463609992678</v>
+        <v>1.036570790024559</v>
       </c>
       <c r="J13">
-        <v>0.9827748314323674</v>
+        <v>1.048797574263854</v>
       </c>
       <c r="K13">
-        <v>0.9964161710960556</v>
+        <v>1.050991568684905</v>
       </c>
       <c r="L13">
-        <v>0.9800726235510937</v>
+        <v>1.043896342661315</v>
       </c>
       <c r="M13">
-        <v>0.9915681097923216</v>
+        <v>1.058227385171448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9527582606067427</v>
+        <v>1.042514315669563</v>
       </c>
       <c r="D14">
-        <v>0.9824645149404441</v>
+        <v>1.047669238461959</v>
       </c>
       <c r="E14">
-        <v>0.9658772555682277</v>
+        <v>1.040569677911027</v>
       </c>
       <c r="F14">
-        <v>0.9777241043801274</v>
+        <v>1.054970986960327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028033175340124</v>
+        <v>1.036641250501196</v>
       </c>
       <c r="J14">
-        <v>0.984276226019984</v>
+        <v>1.049036097737301</v>
       </c>
       <c r="K14">
-        <v>0.9977422930739894</v>
+        <v>1.051197287898914</v>
       </c>
       <c r="L14">
-        <v>0.981490559472315</v>
+        <v>1.044123625255199</v>
       </c>
       <c r="M14">
-        <v>0.9930962426678052</v>
+        <v>1.058472802189909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9539347531168985</v>
+        <v>1.042699038633473</v>
       </c>
       <c r="D15">
-        <v>0.9833846869390027</v>
+        <v>1.047815689952705</v>
       </c>
       <c r="E15">
-        <v>0.9668580649009363</v>
+        <v>1.040729631941974</v>
       </c>
       <c r="F15">
-        <v>0.9787713718673139</v>
+        <v>1.055141830961385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028381200657642</v>
+        <v>1.036684602102939</v>
       </c>
       <c r="J15">
-        <v>0.9851943354639022</v>
+        <v>1.049182986929536</v>
       </c>
       <c r="K15">
-        <v>0.9985531833008215</v>
+        <v>1.051323961808072</v>
       </c>
       <c r="L15">
-        <v>0.9823576960632102</v>
+        <v>1.044263593963279</v>
       </c>
       <c r="M15">
-        <v>0.9940308242014534</v>
+        <v>1.058623942410754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9606518423481477</v>
+        <v>1.043773177231834</v>
       </c>
       <c r="D16">
-        <v>0.9886423341829368</v>
+        <v>1.048667130618234</v>
       </c>
       <c r="E16">
-        <v>0.9724629574343979</v>
+        <v>1.041659786536609</v>
       </c>
       <c r="F16">
-        <v>0.9847561917789697</v>
+        <v>1.056135338073073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030364216916494</v>
+        <v>1.036935992368214</v>
       </c>
       <c r="J16">
-        <v>0.990436428191698</v>
+        <v>1.050036840051349</v>
       </c>
       <c r="K16">
-        <v>1.003182437292471</v>
+        <v>1.052060098603827</v>
       </c>
       <c r="L16">
-        <v>0.9873096609526875</v>
+        <v>1.045077248647074</v>
       </c>
       <c r="M16">
-        <v>0.9993687373333306</v>
+        <v>1.059502594583707</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9647562512451101</v>
+        <v>1.044446062318362</v>
       </c>
       <c r="D17">
-        <v>0.9918581660931063</v>
+        <v>1.049200371259039</v>
       </c>
       <c r="E17">
-        <v>0.9758919260345817</v>
+        <v>1.042242511838027</v>
       </c>
       <c r="F17">
-        <v>0.9884177155243399</v>
+        <v>1.056757775310128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031572265914841</v>
+        <v>1.037092862839225</v>
       </c>
       <c r="J17">
-        <v>0.9936395702217736</v>
+        <v>1.050571475684803</v>
       </c>
       <c r="K17">
-        <v>1.00601047320512</v>
+        <v>1.052520844411018</v>
       </c>
       <c r="L17">
-        <v>0.9903362867969921</v>
+        <v>1.045586740266392</v>
       </c>
       <c r="M17">
-        <v>1.002631918251528</v>
+        <v>1.06005283543779</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9671132033854613</v>
+        <v>1.044838227660145</v>
       </c>
       <c r="D18">
-        <v>0.9937058937591887</v>
+        <v>1.049511100305223</v>
       </c>
       <c r="E18">
-        <v>0.9778624078720664</v>
+        <v>1.042582144258262</v>
       </c>
       <c r="F18">
-        <v>0.9905218783800414</v>
+        <v>1.057120561381946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032264617682747</v>
+        <v>1.037184068520771</v>
       </c>
       <c r="J18">
-        <v>0.9954789099071848</v>
+        <v>1.050882976080774</v>
       </c>
       <c r="K18">
-        <v>1.007634163379767</v>
+        <v>1.052789227753086</v>
       </c>
       <c r="L18">
-        <v>0.9920745287640197</v>
+        <v>1.045883600075098</v>
       </c>
       <c r="M18">
-        <v>1.004506247061316</v>
+        <v>1.060373455873155</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9679107706037802</v>
+        <v>1.04497189257511</v>
       </c>
       <c r="D19">
-        <v>0.9943313113775271</v>
+        <v>1.049617000123166</v>
       </c>
       <c r="E19">
-        <v>0.9785294268845037</v>
+        <v>1.042697906164855</v>
       </c>
       <c r="F19">
-        <v>0.9912341559689654</v>
+        <v>1.057244216470794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032498664852281</v>
+        <v>1.037215117520278</v>
       </c>
       <c r="J19">
-        <v>0.9961013063820459</v>
+        <v>1.050989131758015</v>
       </c>
       <c r="K19">
-        <v>1.008183543333703</v>
+        <v>1.052880678463466</v>
       </c>
       <c r="L19">
-        <v>0.9926627593505559</v>
+        <v>1.045984767991419</v>
       </c>
       <c r="M19">
-        <v>1.005140568209637</v>
+        <v>1.060482724260236</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9643197699677674</v>
+        <v>1.044373901031186</v>
       </c>
       <c r="D20">
-        <v>0.9915160694731404</v>
+        <v>1.049143190818797</v>
       </c>
       <c r="E20">
-        <v>0.9755271263414343</v>
+        <v>1.042180018052263</v>
       </c>
       <c r="F20">
-        <v>0.9880281704769066</v>
+        <v>1.056691021812783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031443937800016</v>
+        <v>1.037076062583216</v>
       </c>
       <c r="J20">
-        <v>0.993298938618288</v>
+        <v>1.050514149959734</v>
       </c>
       <c r="K20">
-        <v>1.00570975723945</v>
+        <v>1.05247144825293</v>
       </c>
       <c r="L20">
-        <v>0.9900143988125713</v>
+        <v>1.045532109614007</v>
       </c>
       <c r="M20">
-        <v>1.002284848071359</v>
+        <v>1.059993833580548</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9521935714172011</v>
+        <v>1.042426010690991</v>
       </c>
       <c r="D21">
-        <v>0.982022930141346</v>
+        <v>1.047599226064408</v>
       </c>
       <c r="E21">
-        <v>0.9654065843017537</v>
+        <v>1.040493214264006</v>
       </c>
       <c r="F21">
-        <v>0.9772215439181093</v>
+        <v>1.054889317982485</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027866061418943</v>
+        <v>1.036620514450324</v>
       </c>
       <c r="J21">
-        <v>0.9838355614121265</v>
+        <v>1.048965873747045</v>
       </c>
       <c r="K21">
-        <v>0.9973530796435834</v>
+        <v>1.051136724670756</v>
       </c>
       <c r="L21">
-        <v>0.981074377130331</v>
+        <v>1.044056710299001</v>
       </c>
       <c r="M21">
-        <v>0.9926477047182318</v>
+        <v>1.058400547453962</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9441847666643469</v>
+        <v>1.041198331824136</v>
       </c>
       <c r="D22">
-        <v>0.9757655991796585</v>
+        <v>1.046625684578137</v>
       </c>
       <c r="E22">
-        <v>0.958737893050805</v>
+        <v>1.03943021534984</v>
       </c>
       <c r="F22">
-        <v>0.9701012277905439</v>
+        <v>1.053753984883722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025491406961734</v>
+        <v>1.036331414663116</v>
       </c>
       <c r="J22">
-        <v>0.9775864268072817</v>
+        <v>1.047989233731397</v>
       </c>
       <c r="K22">
-        <v>0.9918329321408768</v>
+        <v>1.050294199669673</v>
       </c>
       <c r="L22">
-        <v>0.9751736048280975</v>
+        <v>1.043126125729925</v>
       </c>
       <c r="M22">
-        <v>0.9862892010261367</v>
+        <v>1.057395768855433</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.948469557543943</v>
+        <v>1.041849433623997</v>
       </c>
       <c r="D23">
-        <v>0.9791120316633358</v>
+        <v>1.047142045468665</v>
       </c>
       <c r="E23">
-        <v>0.9623041467352221</v>
+        <v>1.039993966396083</v>
       </c>
       <c r="F23">
-        <v>0.9739089535797681</v>
+        <v>1.054356090613272</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026762889325728</v>
+        <v>1.036484927199071</v>
       </c>
       <c r="J23">
-        <v>0.9809296004247174</v>
+        <v>1.048507274277905</v>
       </c>
       <c r="K23">
-        <v>0.9947862516082362</v>
+        <v>1.050741157347508</v>
       </c>
       <c r="L23">
-        <v>0.9783301378326644</v>
+        <v>1.043619728898149</v>
       </c>
       <c r="M23">
-        <v>0.9896903546106459</v>
+        <v>1.057928710904593</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9645171111346438</v>
+        <v>1.044406508590584</v>
       </c>
       <c r="D24">
-        <v>0.991670734402187</v>
+        <v>1.049169029129156</v>
       </c>
       <c r="E24">
-        <v>0.9756920546190924</v>
+        <v>1.042208257111721</v>
       </c>
       <c r="F24">
-        <v>0.9882042861592667</v>
+        <v>1.056721185682366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031501961558836</v>
+        <v>1.037083654804856</v>
       </c>
       <c r="J24">
-        <v>0.9934529446002933</v>
+        <v>1.050540054048781</v>
       </c>
       <c r="K24">
-        <v>1.005845717398388</v>
+        <v>1.052493769368766</v>
       </c>
       <c r="L24">
-        <v>0.9901599296345651</v>
+        <v>1.045556795836963</v>
       </c>
       <c r="M24">
-        <v>1.002441763464966</v>
+        <v>1.060020494986668</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817008085006502</v>
+        <v>1.047361463783019</v>
       </c>
       <c r="D25">
-        <v>1.005157151126749</v>
+        <v>1.051509453478216</v>
       </c>
       <c r="E25">
-        <v>0.9900801959585896</v>
+        <v>1.044767606286392</v>
       </c>
       <c r="F25">
-        <v>1.003569206181382</v>
+        <v>1.059455158941107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036524202715482</v>
+        <v>1.037766917571453</v>
       </c>
       <c r="J25">
-        <v>1.006860106566845</v>
+        <v>1.052885547361145</v>
       </c>
       <c r="K25">
-        <v>1.017675933028664</v>
+        <v>1.054513417266078</v>
       </c>
       <c r="L25">
-        <v>1.002834481057389</v>
+        <v>1.047792217082303</v>
       </c>
       <c r="M25">
-        <v>1.016112366348921</v>
+        <v>1.062435156523322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04970888862596</v>
+        <v>0.9944556970609347</v>
       </c>
       <c r="D2">
-        <v>1.05336706752593</v>
+        <v>1.015188125991969</v>
       </c>
       <c r="E2">
-        <v>1.04680113597715</v>
+        <v>1.000793036598305</v>
       </c>
       <c r="F2">
-        <v>1.061627691383946</v>
+        <v>1.015010327459342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038302735358962</v>
+        <v>1.040205343116719</v>
       </c>
       <c r="J2">
-        <v>1.054745901642773</v>
+        <v>1.016803511376671</v>
       </c>
       <c r="K2">
-        <v>1.056113232328339</v>
+        <v>1.026439844839816</v>
       </c>
       <c r="L2">
-        <v>1.049565555426539</v>
+        <v>1.012241334207199</v>
       </c>
       <c r="M2">
-        <v>1.064351237256879</v>
+        <v>1.026264431576753</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051408124854707</v>
+        <v>1.003248326361714</v>
       </c>
       <c r="D3">
-        <v>1.054710776521811</v>
+        <v>1.022110709218339</v>
       </c>
       <c r="E3">
-        <v>1.048273350027508</v>
+        <v>1.008193554507649</v>
       </c>
       <c r="F3">
-        <v>1.063200686143314</v>
+        <v>1.022914443645876</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038686550608598</v>
+        <v>1.04271391311083</v>
       </c>
       <c r="J3">
-        <v>1.056090861217224</v>
+        <v>1.023650828726011</v>
       </c>
       <c r="K3">
-        <v>1.057268612926101</v>
+        <v>1.032468284912079</v>
       </c>
       <c r="L3">
-        <v>1.050847771178331</v>
+        <v>1.018722659827452</v>
       </c>
       <c r="M3">
-        <v>1.065736980932223</v>
+        <v>1.033262290334575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052505325776798</v>
+        <v>1.008743802332485</v>
       </c>
       <c r="D4">
-        <v>1.055577957420256</v>
+        <v>1.026439794733861</v>
       </c>
       <c r="E4">
-        <v>1.049224047233271</v>
+        <v>1.012825189550897</v>
       </c>
       <c r="F4">
-        <v>1.064216531138523</v>
+        <v>1.027861463431363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038932505001578</v>
+        <v>1.044267763032154</v>
       </c>
       <c r="J4">
-        <v>1.056958514722631</v>
+        <v>1.02792645485783</v>
       </c>
       <c r="K4">
-        <v>1.058013399260951</v>
+        <v>1.036229253022035</v>
       </c>
       <c r="L4">
-        <v>1.051675023326691</v>
+        <v>1.02277125142847</v>
       </c>
       <c r="M4">
-        <v>1.066631172740828</v>
+        <v>1.037634863607933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052966046494882</v>
+        <v>1.011010687113342</v>
       </c>
       <c r="D5">
-        <v>1.055941981271522</v>
+        <v>1.028225966570918</v>
       </c>
       <c r="E5">
-        <v>1.049623269633533</v>
+        <v>1.014737110098964</v>
       </c>
       <c r="F5">
-        <v>1.0646431269236</v>
+        <v>1.029903620110735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039035332959586</v>
+        <v>1.044905274950493</v>
       </c>
       <c r="J5">
-        <v>1.057322657464132</v>
+        <v>1.029689096830799</v>
       </c>
       <c r="K5">
-        <v>1.058325840118522</v>
+        <v>1.037778889754435</v>
       </c>
       <c r="L5">
-        <v>1.052022228145743</v>
+        <v>1.02444064238595</v>
       </c>
       <c r="M5">
-        <v>1.067006507577722</v>
+        <v>1.03943815033873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053043372077187</v>
+        <v>1.011388843429355</v>
       </c>
       <c r="D6">
-        <v>1.056003071128437</v>
+        <v>1.028523952163044</v>
       </c>
       <c r="E6">
-        <v>1.049690274686087</v>
+        <v>1.015056129242047</v>
       </c>
       <c r="F6">
-        <v>1.064714727240327</v>
+        <v>1.030244372847251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039052564820105</v>
+        <v>1.04501141776068</v>
       </c>
       <c r="J6">
-        <v>1.057383762626948</v>
+        <v>1.029983071992662</v>
       </c>
       <c r="K6">
-        <v>1.05837826142179</v>
+        <v>1.038037289519313</v>
       </c>
       <c r="L6">
-        <v>1.052080492083908</v>
+        <v>1.024719084927224</v>
       </c>
       <c r="M6">
-        <v>1.067069494015104</v>
+        <v>1.03973894337309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05251148406419</v>
+        <v>1.008774259377222</v>
       </c>
       <c r="D7">
-        <v>1.055582823630303</v>
+        <v>1.026463791610437</v>
       </c>
       <c r="E7">
-        <v>1.049229383419869</v>
+        <v>1.012850872156197</v>
       </c>
       <c r="F7">
-        <v>1.064222233146748</v>
+        <v>1.027888895302634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038933881233966</v>
+        <v>1.044276342193574</v>
       </c>
       <c r="J7">
-        <v>1.056963382833779</v>
+        <v>1.02795014137225</v>
       </c>
       <c r="K7">
-        <v>1.058017576721558</v>
+        <v>1.036250080513726</v>
       </c>
       <c r="L7">
-        <v>1.051679664929409</v>
+        <v>1.022793683481317</v>
       </c>
       <c r="M7">
-        <v>1.066636190262355</v>
+        <v>1.03765909365922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050283641094671</v>
+        <v>0.9974692801405931</v>
       </c>
       <c r="D8">
-        <v>1.053821659544518</v>
+        <v>1.017560161202762</v>
       </c>
       <c r="E8">
-        <v>1.047299081874205</v>
+        <v>1.003328083869593</v>
       </c>
       <c r="F8">
-        <v>1.062159710217082</v>
+        <v>1.017717836731852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038432946356402</v>
+        <v>1.041068045552647</v>
       </c>
       <c r="J8">
-        <v>1.05520098647182</v>
+        <v>1.019151148760456</v>
       </c>
       <c r="K8">
-        <v>1.056504287985327</v>
+        <v>1.028507408663179</v>
       </c>
       <c r="L8">
-        <v>1.049999394298822</v>
+        <v>1.014463162079331</v>
       </c>
       <c r="M8">
-        <v>1.064820074503733</v>
+        <v>1.028663040068773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046339576494526</v>
+        <v>0.9759090947207287</v>
       </c>
       <c r="D9">
-        <v>1.050700333107755</v>
+        <v>1.000607672456659</v>
       </c>
       <c r="E9">
-        <v>1.043882467239555</v>
+        <v>0.9852248773917525</v>
       </c>
       <c r="F9">
-        <v>1.058509587237848</v>
+        <v>0.9983840951119346</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03753170998789</v>
+        <v>1.03483865350148</v>
       </c>
       <c r="J9">
-        <v>1.052074875273024</v>
+        <v>1.002342217914399</v>
       </c>
       <c r="K9">
-        <v>1.053815690597578</v>
+        <v>1.013690898286901</v>
       </c>
       <c r="L9">
-        <v>1.047019543998641</v>
+        <v>0.9985623073067469</v>
       </c>
       <c r="M9">
-        <v>1.061600442908638</v>
+        <v>1.01150344376326</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043697091475469</v>
+        <v>0.960182831738736</v>
       </c>
       <c r="D10">
-        <v>1.048606828285334</v>
+        <v>0.988275011966066</v>
       </c>
       <c r="E10">
-        <v>1.041593897322076</v>
+        <v>0.9720713284168729</v>
       </c>
       <c r="F10">
-        <v>1.056064959705235</v>
+        <v>0.9843380080779929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036918224592825</v>
+        <v>1.030225989181821</v>
       </c>
       <c r="J10">
-        <v>1.049976374322297</v>
+        <v>0.9900704016690157</v>
       </c>
       <c r="K10">
-        <v>1.052007980689353</v>
+        <v>1.002859241601231</v>
       </c>
       <c r="L10">
-        <v>1.045019627900092</v>
+        <v>0.9869638421002885</v>
       </c>
       <c r="M10">
-        <v>1.059440367722662</v>
+        <v>0.9989959221464054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042549580245486</v>
+        <v>0.9529833558934374</v>
       </c>
       <c r="D11">
-        <v>1.047697197409005</v>
+        <v>0.9826405524726913</v>
       </c>
       <c r="E11">
-        <v>1.040600213796262</v>
+        <v>0.9660648907291187</v>
       </c>
       <c r="F11">
-        <v>1.055003601685753</v>
+        <v>0.9779244528110734</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036649529227562</v>
+        <v>1.028099777425508</v>
       </c>
       <c r="J11">
-        <v>1.049064140758654</v>
+        <v>0.9844518841345148</v>
       </c>
       <c r="K11">
-        <v>1.051221472363606</v>
+        <v>0.9978974397512127</v>
       </c>
       <c r="L11">
-        <v>1.044150346952669</v>
+        <v>0.9816564614901522</v>
       </c>
       <c r="M11">
-        <v>1.058501656444982</v>
+        <v>0.993275045183029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042122832705172</v>
+        <v>0.950243455535943</v>
       </c>
       <c r="D12">
-        <v>1.047358838809663</v>
+        <v>0.9804983333605475</v>
       </c>
       <c r="E12">
-        <v>1.040230695085915</v>
+        <v>0.9637816267448857</v>
       </c>
       <c r="F12">
-        <v>1.054608929823063</v>
+        <v>0.9754865051945848</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03654926119009</v>
+        <v>1.027288606019083</v>
       </c>
       <c r="J12">
-        <v>1.04872474846828</v>
+        <v>0.982313794914068</v>
       </c>
       <c r="K12">
-        <v>1.05092875326277</v>
+        <v>0.9960089407913626</v>
       </c>
       <c r="L12">
-        <v>1.043826949702147</v>
+        <v>0.9796372403112805</v>
       </c>
       <c r="M12">
-        <v>1.058152456959303</v>
+        <v>0.9910989121476987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042214394862572</v>
+        <v>0.9508342741486028</v>
       </c>
       <c r="D13">
-        <v>1.047431439830911</v>
+        <v>0.9809601704916326</v>
       </c>
       <c r="E13">
-        <v>1.04030997732361</v>
+        <v>0.9642738556865711</v>
       </c>
       <c r="F13">
-        <v>1.054693608225574</v>
+        <v>0.9760120774226549</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036570790024559</v>
+        <v>1.027463609992678</v>
       </c>
       <c r="J13">
-        <v>1.048797574263854</v>
+        <v>0.9827748314323671</v>
       </c>
       <c r="K13">
-        <v>1.050991568684905</v>
+        <v>0.9964161710960557</v>
       </c>
       <c r="L13">
-        <v>1.043896342661315</v>
+        <v>0.9800726235510931</v>
       </c>
       <c r="M13">
-        <v>1.058227385171448</v>
+        <v>0.9915681097923215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042514315669563</v>
+        <v>0.9527582606067435</v>
       </c>
       <c r="D14">
-        <v>1.047669238461959</v>
+        <v>0.9824645149404446</v>
       </c>
       <c r="E14">
-        <v>1.040569677911027</v>
+        <v>0.9658772555682283</v>
       </c>
       <c r="F14">
-        <v>1.054970986960327</v>
+        <v>0.9777241043801282</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036641250501196</v>
+        <v>1.028033175340124</v>
       </c>
       <c r="J14">
-        <v>1.049036097737301</v>
+        <v>0.9842762260199848</v>
       </c>
       <c r="K14">
-        <v>1.051197287898914</v>
+        <v>0.9977422930739903</v>
       </c>
       <c r="L14">
-        <v>1.044123625255199</v>
+        <v>0.9814905594723158</v>
       </c>
       <c r="M14">
-        <v>1.058472802189909</v>
+        <v>0.9930962426678062</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042699038633473</v>
+        <v>0.9539347531169005</v>
       </c>
       <c r="D15">
-        <v>1.047815689952705</v>
+        <v>0.9833846869390047</v>
       </c>
       <c r="E15">
-        <v>1.040729631941974</v>
+        <v>0.966858064900938</v>
       </c>
       <c r="F15">
-        <v>1.055141830961385</v>
+        <v>0.9787713718673157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036684602102939</v>
+        <v>1.028381200657643</v>
       </c>
       <c r="J15">
-        <v>1.049182986929536</v>
+        <v>0.9851943354639042</v>
       </c>
       <c r="K15">
-        <v>1.051323961808072</v>
+        <v>0.9985531833008233</v>
       </c>
       <c r="L15">
-        <v>1.044263593963279</v>
+        <v>0.9823576960632117</v>
       </c>
       <c r="M15">
-        <v>1.058623942410754</v>
+        <v>0.9940308242014554</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043773177231834</v>
+        <v>0.9606518423481476</v>
       </c>
       <c r="D16">
-        <v>1.048667130618234</v>
+        <v>0.988642334182937</v>
       </c>
       <c r="E16">
-        <v>1.041659786536609</v>
+        <v>0.972462957434398</v>
       </c>
       <c r="F16">
-        <v>1.056135338073073</v>
+        <v>0.9847561917789696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036935992368214</v>
+        <v>1.030364216916494</v>
       </c>
       <c r="J16">
-        <v>1.050036840051349</v>
+        <v>0.990436428191698</v>
       </c>
       <c r="K16">
-        <v>1.052060098603827</v>
+        <v>1.003182437292471</v>
       </c>
       <c r="L16">
-        <v>1.045077248647074</v>
+        <v>0.9873096609526876</v>
       </c>
       <c r="M16">
-        <v>1.059502594583707</v>
+        <v>0.9993687373333305</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044446062318362</v>
+        <v>0.9647562512451107</v>
       </c>
       <c r="D17">
-        <v>1.049200371259039</v>
+        <v>0.9918581660931068</v>
       </c>
       <c r="E17">
-        <v>1.042242511838027</v>
+        <v>0.9758919260345822</v>
       </c>
       <c r="F17">
-        <v>1.056757775310128</v>
+        <v>0.9884177155243407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037092862839225</v>
+        <v>1.031572265914842</v>
       </c>
       <c r="J17">
-        <v>1.050571475684803</v>
+        <v>0.9936395702217743</v>
       </c>
       <c r="K17">
-        <v>1.052520844411018</v>
+        <v>1.006010473205121</v>
       </c>
       <c r="L17">
-        <v>1.045586740266392</v>
+        <v>0.9903362867969927</v>
       </c>
       <c r="M17">
-        <v>1.06005283543779</v>
+        <v>1.002631918251529</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044838227660145</v>
+        <v>0.9671132033854589</v>
       </c>
       <c r="D18">
-        <v>1.049511100305223</v>
+        <v>0.9937058937591865</v>
       </c>
       <c r="E18">
-        <v>1.042582144258262</v>
+        <v>0.9778624078720645</v>
       </c>
       <c r="F18">
-        <v>1.057120561381946</v>
+        <v>0.9905218783800388</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037184068520771</v>
+        <v>1.032264617682745</v>
       </c>
       <c r="J18">
-        <v>1.050882976080774</v>
+        <v>0.9954789099071825</v>
       </c>
       <c r="K18">
-        <v>1.052789227753086</v>
+        <v>1.007634163379765</v>
       </c>
       <c r="L18">
-        <v>1.045883600075098</v>
+        <v>0.9920745287640178</v>
       </c>
       <c r="M18">
-        <v>1.060373455873155</v>
+        <v>1.004506247061314</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04497189257511</v>
+        <v>0.9679107706037803</v>
       </c>
       <c r="D19">
-        <v>1.049617000123166</v>
+        <v>0.9943313113775274</v>
       </c>
       <c r="E19">
-        <v>1.042697906164855</v>
+        <v>0.9785294268845037</v>
       </c>
       <c r="F19">
-        <v>1.057244216470794</v>
+        <v>0.9912341559689655</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037215117520278</v>
+        <v>1.032498664852281</v>
       </c>
       <c r="J19">
-        <v>1.050989131758015</v>
+        <v>0.9961013063820459</v>
       </c>
       <c r="K19">
-        <v>1.052880678463466</v>
+        <v>1.008183543333703</v>
       </c>
       <c r="L19">
-        <v>1.045984767991419</v>
+        <v>0.992662759350556</v>
       </c>
       <c r="M19">
-        <v>1.060482724260236</v>
+        <v>1.005140568209637</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044373901031186</v>
+        <v>0.9643197699677655</v>
       </c>
       <c r="D20">
-        <v>1.049143190818797</v>
+        <v>0.9915160694731391</v>
       </c>
       <c r="E20">
-        <v>1.042180018052263</v>
+        <v>0.9755271263414326</v>
       </c>
       <c r="F20">
-        <v>1.056691021812783</v>
+        <v>0.9880281704769053</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037076062583216</v>
+        <v>1.031443937800015</v>
       </c>
       <c r="J20">
-        <v>1.050514149959734</v>
+        <v>0.9932989386182861</v>
       </c>
       <c r="K20">
-        <v>1.05247144825293</v>
+        <v>1.005709757239449</v>
       </c>
       <c r="L20">
-        <v>1.045532109614007</v>
+        <v>0.9900143988125696</v>
       </c>
       <c r="M20">
-        <v>1.059993833580548</v>
+        <v>1.002284848071358</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042426010690991</v>
+        <v>0.9521935714171996</v>
       </c>
       <c r="D21">
-        <v>1.047599226064408</v>
+        <v>0.9820229301413447</v>
       </c>
       <c r="E21">
-        <v>1.040493214264006</v>
+        <v>0.9654065843017521</v>
       </c>
       <c r="F21">
-        <v>1.054889317982485</v>
+        <v>0.9772215439181079</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036620514450324</v>
+        <v>1.027866061418943</v>
       </c>
       <c r="J21">
-        <v>1.048965873747045</v>
+        <v>0.983835561412125</v>
       </c>
       <c r="K21">
-        <v>1.051136724670756</v>
+        <v>0.997353079643582</v>
       </c>
       <c r="L21">
-        <v>1.044056710299001</v>
+        <v>0.9810743771303296</v>
       </c>
       <c r="M21">
-        <v>1.058400547453962</v>
+        <v>0.9926477047182303</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041198331824136</v>
+        <v>0.944184766664348</v>
       </c>
       <c r="D22">
-        <v>1.046625684578137</v>
+        <v>0.9757655991796594</v>
       </c>
       <c r="E22">
-        <v>1.03943021534984</v>
+        <v>0.9587378930508061</v>
       </c>
       <c r="F22">
-        <v>1.053753984883722</v>
+        <v>0.9701012277905453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036331414663116</v>
+        <v>1.025491406961735</v>
       </c>
       <c r="J22">
-        <v>1.047989233731397</v>
+        <v>0.9775864268072829</v>
       </c>
       <c r="K22">
-        <v>1.050294199669673</v>
+        <v>0.9918329321408776</v>
       </c>
       <c r="L22">
-        <v>1.043126125729925</v>
+        <v>0.9751736048280985</v>
       </c>
       <c r="M22">
-        <v>1.057395768855433</v>
+        <v>0.986289201026138</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041849433623997</v>
+        <v>0.9484695575439409</v>
       </c>
       <c r="D23">
-        <v>1.047142045468665</v>
+        <v>0.9791120316633343</v>
       </c>
       <c r="E23">
-        <v>1.039993966396083</v>
+        <v>0.9623041467352199</v>
       </c>
       <c r="F23">
-        <v>1.054356090613272</v>
+        <v>0.9739089535797666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036484927199071</v>
+        <v>1.026762889325727</v>
       </c>
       <c r="J23">
-        <v>1.048507274277905</v>
+        <v>0.9809296004247157</v>
       </c>
       <c r="K23">
-        <v>1.050741157347508</v>
+        <v>0.9947862516082346</v>
       </c>
       <c r="L23">
-        <v>1.043619728898149</v>
+        <v>0.9783301378326624</v>
       </c>
       <c r="M23">
-        <v>1.057928710904593</v>
+        <v>0.9896903546106444</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044406508590584</v>
+        <v>0.9645171111346434</v>
       </c>
       <c r="D24">
-        <v>1.049169029129156</v>
+        <v>0.9916707344021869</v>
       </c>
       <c r="E24">
-        <v>1.042208257111721</v>
+        <v>0.9756920546190925</v>
       </c>
       <c r="F24">
-        <v>1.056721185682366</v>
+        <v>0.9882042861592666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037083654804856</v>
+        <v>1.031501961558836</v>
       </c>
       <c r="J24">
-        <v>1.050540054048781</v>
+        <v>0.9934529446002933</v>
       </c>
       <c r="K24">
-        <v>1.052493769368766</v>
+        <v>1.005845717398388</v>
       </c>
       <c r="L24">
-        <v>1.045556795836963</v>
+        <v>0.9901599296345652</v>
       </c>
       <c r="M24">
-        <v>1.060020494986668</v>
+        <v>1.002441763464966</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047361463783019</v>
+        <v>0.9817008085006488</v>
       </c>
       <c r="D25">
-        <v>1.051509453478216</v>
+        <v>1.005157151126748</v>
       </c>
       <c r="E25">
-        <v>1.044767606286392</v>
+        <v>0.9900801959585886</v>
       </c>
       <c r="F25">
-        <v>1.059455158941107</v>
+        <v>1.00356920618138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037766917571453</v>
+        <v>1.036524202715482</v>
       </c>
       <c r="J25">
-        <v>1.052885547361145</v>
+        <v>1.006860106566844</v>
       </c>
       <c r="K25">
-        <v>1.054513417266078</v>
+        <v>1.017675933028662</v>
       </c>
       <c r="L25">
-        <v>1.047792217082303</v>
+        <v>1.002834481057387</v>
       </c>
       <c r="M25">
-        <v>1.062435156523322</v>
+        <v>1.01611236634892</v>
       </c>
     </row>
   </sheetData>
